--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.02.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.02.xlsx
@@ -67,21 +67,21 @@
     <t>כן, יואב.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>כן.</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>הוא הגיע אתך.</t>
+  </si>
+  <si>
     <t>gives-med</t>
   </si>
   <si>
-    <t>כן.</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>הוא הגיע אתך.</t>
-  </si>
-  <si>
     <t>הגענו אתמול כבר.</t>
   </si>
   <si>
@@ -112,39 +112,42 @@
     <t>אם זה לא לאחרונה?</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
+  </si>
+  <si>
+    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
+  </si>
+  <si>
+    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
+  </si>
+  <si>
+    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
+  </si>
+  <si>
+    <t>ליואב?</t>
+  </si>
+  <si>
+    <t>ליואב סכרת?</t>
+  </si>
+  <si>
     <t>disagree</t>
   </si>
   <si>
-    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
-  </si>
-  <si>
-    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
-  </si>
-  <si>
-    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
-  </si>
-  <si>
-    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
-  </si>
-  <si>
-    <t>ליואב?</t>
-  </si>
-  <si>
-    <t>ליואב סכרת?</t>
-  </si>
-  <si>
     <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
   </si>
   <si>
@@ -212,9 +215,6 @@
   </si>
   <si>
     <t>אני פשוט, אני לא אני בהלם כי.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -849,10 +849,10 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -860,13 +860,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -877,10 +877,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -905,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -919,10 +919,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -933,7 +933,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -947,10 +947,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -961,7 +961,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -978,7 +978,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1006,7 +1006,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1034,7 +1034,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1045,7 +1045,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1059,10 +1059,10 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1073,10 +1073,10 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1087,10 +1087,10 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1101,10 +1101,10 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1129,7 +1129,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -1146,7 +1146,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1224,13 +1224,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1238,13 +1238,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1255,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1294,13 +1294,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
@@ -1322,13 +1322,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1336,10 +1336,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1364,13 +1364,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
@@ -1392,13 +1392,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1406,13 +1406,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1420,13 +1420,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1479,10 +1479,10 @@
         <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1496,7 +1496,7 @@
         <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1510,7 +1510,7 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1535,10 +1535,10 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1566,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1591,10 +1591,10 @@
         <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1608,7 +1608,7 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1633,10 +1633,10 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1647,10 +1647,10 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1661,10 +1661,10 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1675,10 +1675,10 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1689,10 +1689,10 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1703,10 +1703,10 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1720,7 +1720,7 @@
         <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -1748,7 +1748,7 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -1759,7 +1759,7 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -1773,7 +1773,7 @@
         <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -1787,10 +1787,10 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -1801,10 +1801,10 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -1818,7 +1818,7 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1832,7 +1832,7 @@
         <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -1874,7 +1874,7 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1899,10 +1899,10 @@
         <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1913,10 +1913,10 @@
         <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -1941,10 +1941,10 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -1955,10 +1955,10 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -1997,7 +1997,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
         <v>30</v>
@@ -2011,7 +2011,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2025,7 +2025,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
         <v>30</v>
@@ -2039,7 +2039,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2053,10 +2053,10 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2081,7 +2081,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2123,10 +2123,10 @@
         <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2137,7 +2137,7 @@
         <v>117</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -2165,10 +2165,10 @@
         <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2179,10 +2179,10 @@
         <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2193,7 +2193,7 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2210,7 +2210,7 @@
         <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2224,7 +2224,7 @@
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -2238,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -2252,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2266,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
